--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,24 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -79,142 +79,145 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +586,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7636986301369864</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6578947368421053</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4515503875968992</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4496644295302014</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.828125</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.4205426356589148</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3766233766233766</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8203125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,37 +1044,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3563829787234042</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3125</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8083333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,37 +1194,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.257936507936508</v>
+        <v>0.2749003984063745</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,37 +1244,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1644204851752022</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7547169811320755</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M15">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,37 +1294,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01114294810569882</v>
+        <v>0.008341675008341674</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="E16">
-        <v>0.63</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F16">
-        <v>0.37</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>3106</v>
+        <v>2972</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K16">
-        <v>0.725</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1341,13 +1344,13 @@
         <v>37</v>
       </c>
       <c r="K17">
-        <v>0.6984126984126984</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1367,13 +1370,13 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>0.6684073107049608</v>
+        <v>0.71875</v>
       </c>
       <c r="L18">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="M18">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1385,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>127</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1393,13 +1396,13 @@
         <v>39</v>
       </c>
       <c r="K19">
-        <v>0.6458333333333334</v>
+        <v>0.68</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1411,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1419,13 +1422,13 @@
         <v>40</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6631853785900783</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1437,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1445,13 +1448,13 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6382978723404256</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1463,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1471,13 +1474,13 @@
         <v>42</v>
       </c>
       <c r="K22">
-        <v>0.5764705882352941</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L22">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1489,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>144</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1497,13 +1500,13 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>0.5730337078651685</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L23">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1523,13 +1526,13 @@
         <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5694915254237288</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L24">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1541,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1549,13 +1552,13 @@
         <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5230769230769231</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1567,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1575,13 +1578,13 @@
         <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5062761506276151</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L26">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="M26">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1593,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1601,13 +1604,13 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>0.4931506849315068</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1619,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1627,13 +1630,13 @@
         <v>48</v>
       </c>
       <c r="K28">
-        <v>0.4743589743589743</v>
+        <v>0.5062761506276151</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1645,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1653,13 +1656,13 @@
         <v>49</v>
       </c>
       <c r="K29">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1671,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1679,13 +1682,13 @@
         <v>50</v>
       </c>
       <c r="K30">
-        <v>0.4285714285714285</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1697,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1705,13 +1708,13 @@
         <v>51</v>
       </c>
       <c r="K31">
-        <v>0.1754807692307692</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L31">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1723,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>343</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1731,13 +1734,13 @@
         <v>52</v>
       </c>
       <c r="K32">
-        <v>0.1717791411042945</v>
+        <v>0.390625</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1749,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1757,13 +1760,13 @@
         <v>53</v>
       </c>
       <c r="K33">
-        <v>0.1686046511627907</v>
+        <v>0.1985645933014354</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1775,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>143</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1783,25 +1786,25 @@
         <v>54</v>
       </c>
       <c r="K34">
-        <v>0.1678657074340528</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L34">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N34">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O34">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>347</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1809,13 +1812,13 @@
         <v>55</v>
       </c>
       <c r="K35">
-        <v>0.1581395348837209</v>
+        <v>0.1706730769230769</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1827,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>181</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1835,25 +1838,25 @@
         <v>56</v>
       </c>
       <c r="K36">
-        <v>0.1495327102803738</v>
+        <v>0.1674418604651163</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1861,25 +1864,25 @@
         <v>57</v>
       </c>
       <c r="K37">
-        <v>0.1130434782608696</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M37">
         <v>26</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>204</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1887,25 +1890,25 @@
         <v>58</v>
       </c>
       <c r="K38">
-        <v>0.1107382550335571</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="L38">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>795</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1913,25 +1916,25 @@
         <v>59</v>
       </c>
       <c r="K39">
-        <v>0.09846153846153846</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1939,25 +1942,25 @@
         <v>60</v>
       </c>
       <c r="K40">
-        <v>0.09666666666666666</v>
+        <v>0.1017897091722595</v>
       </c>
       <c r="L40">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M40">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1965,25 +1968,25 @@
         <v>61</v>
       </c>
       <c r="K41">
-        <v>0.09259259259259259</v>
+        <v>0.08565072302558398</v>
       </c>
       <c r="L41">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="M41">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>441</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1991,25 +1994,25 @@
         <v>62</v>
       </c>
       <c r="K42">
-        <v>0.07739938080495357</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L42">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N42">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>596</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2017,25 +2020,25 @@
         <v>63</v>
       </c>
       <c r="K43">
-        <v>0.07641819034224097</v>
+        <v>0.07098765432098765</v>
       </c>
       <c r="L43">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1970</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2043,25 +2046,25 @@
         <v>64</v>
       </c>
       <c r="K44">
-        <v>0.07291666666666667</v>
+        <v>0.06770098730606489</v>
       </c>
       <c r="L44">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="M44">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>801</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2069,77 +2072,103 @@
         <v>65</v>
       </c>
       <c r="K45">
-        <v>0.04116693679092383</v>
+        <v>0.05311778290993072</v>
       </c>
       <c r="L45">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="M45">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="N45">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="O45">
-        <v>0.15</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2958</v>
+        <v>820</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="K46">
-        <v>0.03312629399585922</v>
+        <v>0.03569110966904607</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="M46">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>934</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.01895135818066962</v>
+        <v>0.02910602910602911</v>
       </c>
       <c r="L47">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="N47">
-        <v>0.63</v>
+        <v>0.82</v>
       </c>
       <c r="O47">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>3106</v>
+        <v>934</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48">
+        <v>0.02392193893610324</v>
+      </c>
+      <c r="L48">
+        <v>76</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>0.76</v>
+      </c>
+      <c r="O48">
+        <v>0.24</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3101</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,19 +49,16 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
@@ -70,154 +67,157 @@
     <t>sc</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +583,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -644,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -744,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7123287671232876</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C5">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D5">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="L5">
         <v>25</v>
       </c>
-      <c r="K5">
-        <v>0.9393939393939394</v>
-      </c>
-      <c r="L5">
-        <v>31</v>
-      </c>
       <c r="M5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6842105263157895</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8723404255319149</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8392857142857143</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L7">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4429530201342282</v>
+        <v>0.4295302013422819</v>
       </c>
       <c r="C8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.828125</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4205426356589148</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C9">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>299</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3733333333333334</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,37 +1044,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3636363636363636</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="C11">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>61</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>128</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11">
-        <v>28</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>49</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K11">
-        <v>0.8028169014084507</v>
+        <v>0.8203125</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3439153439153439</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="C12">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2888888888888889</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,169 +1162,97 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>64</v>
+        <v>313</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L13">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>47</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.8</v>
+      </c>
+      <c r="L14">
+        <v>96</v>
+      </c>
+      <c r="M14">
+        <v>96</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="L15">
+        <v>40</v>
+      </c>
+      <c r="M15">
+        <v>40</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K13">
-        <v>0.7619047619047619</v>
-      </c>
-      <c r="L13">
-        <v>48</v>
-      </c>
-      <c r="M13">
-        <v>48</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.2749003984063745</v>
-      </c>
-      <c r="C14">
-        <v>69</v>
-      </c>
-      <c r="D14">
-        <v>70</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
-      <c r="F14">
-        <v>0.99</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>182</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14">
-        <v>0.7547169811320755</v>
-      </c>
-      <c r="L14">
-        <v>80</v>
-      </c>
-      <c r="M14">
-        <v>80</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.1528150134048257</v>
-      </c>
-      <c r="C15">
-        <v>57</v>
-      </c>
-      <c r="D15">
-        <v>57</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>316</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>0.75</v>
-      </c>
-      <c r="L15">
-        <v>90</v>
-      </c>
-      <c r="M15">
-        <v>90</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.008341675008341674</v>
-      </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>135</v>
-      </c>
-      <c r="E16">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F16">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2972</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.7254901960784313</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.71875</v>
+        <v>0.7125</v>
       </c>
       <c r="L18">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1388,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.68</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1414,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6631853785900783</v>
+        <v>0.66</v>
       </c>
       <c r="L20">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1440,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>129</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.648936170212766</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L21">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="M21">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1466,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6041666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1492,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5941176470588235</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1518,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>138</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5813953488372093</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1549,16 +1477,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5692307692307692</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1570,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5661016949152542</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L26">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="M26">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1596,12 +1524,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>0.5393258426966292</v>
@@ -1627,16 +1555,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5062761506276151</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L28">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1648,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5313807531380753</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1674,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4657534246575342</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1700,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4571428571428571</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1726,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.390625</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1752,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.1985645933014354</v>
+        <v>0.46875</v>
       </c>
       <c r="L33">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1778,151 +1706,151 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>335</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.1984126984126984</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.1706730769230769</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="L35">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>345</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.1674418604651163</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.154320987654321</v>
+        <v>0.1658653846153846</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>137</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.1401869158878505</v>
+        <v>0.1650717703349282</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>184</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.1192660550458716</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1934,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>288</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.1017897091722595</v>
+        <v>0.121923937360179</v>
       </c>
       <c r="L40">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="M40">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1960,125 +1888,125 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>803</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.08565072302558398</v>
+        <v>0.1207430340557276</v>
       </c>
       <c r="L41">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>822</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.08116883116883117</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>283</v>
+        <v>816</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.07098765432098765</v>
+        <v>0.09119010819165378</v>
       </c>
       <c r="L43">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="M43">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>602</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.06770098730606489</v>
+        <v>0.08736496007515265</v>
       </c>
       <c r="L44">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="M44">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N44">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1983</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.05311778290993072</v>
+        <v>0.08453608247422681</v>
       </c>
       <c r="L45">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>0.98</v>
@@ -2090,85 +2018,137 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>820</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.03569110966904607</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="L46">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="M46">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="N46">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0.1899999999999999</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2972</v>
+        <v>796</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.02910602910602911</v>
+        <v>0.04464574571336137</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="N47">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="O47">
-        <v>0.18</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>934</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48">
+        <v>0.04356846473029045</v>
+      </c>
+      <c r="L48">
+        <v>42</v>
+      </c>
+      <c r="M48">
+        <v>46</v>
+      </c>
+      <c r="N48">
+        <v>0.91</v>
+      </c>
+      <c r="O48">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49">
+        <v>0.02796104304115614</v>
+      </c>
+      <c r="L49">
+        <v>89</v>
+      </c>
+      <c r="M49">
+        <v>107</v>
+      </c>
+      <c r="N49">
+        <v>0.83</v>
+      </c>
+      <c r="O49">
+        <v>0.17</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K48">
-        <v>0.02392193893610324</v>
-      </c>
-      <c r="L48">
-        <v>76</v>
-      </c>
-      <c r="M48">
-        <v>100</v>
-      </c>
-      <c r="N48">
-        <v>0.76</v>
-      </c>
-      <c r="O48">
-        <v>0.24</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>3101</v>
+      <c r="K50">
+        <v>0.02599653379549393</v>
+      </c>
+      <c r="L50">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>37</v>
+      </c>
+      <c r="N50">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O50">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
